--- a/raw_data/1_replace/ReplacedFOS.xlsx
+++ b/raw_data/1_replace/ReplacedFOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/raw_data/1_replace/ReplacedFOS.xlsx
+++ b/raw_data/1_replace/ReplacedFOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/raw_data/1_replace/ReplacedFOS.xlsx
+++ b/raw_data/1_replace/ReplacedFOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,156 +459,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>109332788</t>
+          <t>2779819667</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Economic efficiency</t>
+          <t>Nuclear fuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SDG_10</t>
+          <t>SDG_12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>139838865</t>
+          <t>7083945</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Racism</t>
+          <t>Spent nuclear fuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SDG_10</t>
+          <t>SDG_12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2779819667</t>
+          <t>102561126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nuclear fuel</t>
+          <t>Tropical cyclone forecast model</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SDG_12</t>
+          <t>SDG_13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7083945</t>
+          <t>21790881</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spent nuclear fuel</t>
+          <t>Deep sea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SDG_12</t>
+          <t>SDG_14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>102561126</t>
+          <t>2778163119</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tropical cyclone forecast model</t>
+          <t>Acid sulfate soil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SDG_13</t>
+          <t>SDG_2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21790881</t>
+          <t>14171219</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deep sea</t>
+          <t>Agricultural soil science</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SDG_14</t>
+          <t>SDG_2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2779449393</t>
+          <t>2780257989</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Human security</t>
+          <t>Biological soil crust</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SDG_16</t>
+          <t>SDG_2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2778099469</t>
+          <t>33411773</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Language politics</t>
+          <t>Bulk soil</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SDG_16</t>
+          <t>SDG_2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2778163119</t>
+          <t>104471815</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Acid sulfate soil</t>
+          <t>Digital soil mapping</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -553,12 +621,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14171219</t>
+          <t>42731165</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Agricultural soil science</t>
+          <t>Environmental soil science</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -571,12 +639,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2780257989</t>
+          <t>28362043</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Biological soil crust</t>
+          <t>Hydric soil</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -589,12 +657,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>33411773</t>
+          <t>55312793</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bulk soil</t>
+          <t>National Cooperative Soil Survey</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -607,12 +675,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>104471815</t>
+          <t>2778818373</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Digital soil mapping</t>
+          <t>Plant–soil feedback</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -625,12 +693,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>42731165</t>
+          <t>58395597</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Environmental soil science</t>
+          <t>Red soil</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -643,12 +711,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>28362043</t>
+          <t>2910302653</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hydric soil</t>
+          <t>SOIL EXPOSURE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -661,12 +729,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55312793</t>
+          <t>2779746779</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>National Cooperative Soil Survey</t>
+          <t>Serpentine soil</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -679,12 +747,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2778818373</t>
+          <t>2775845107</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Plant–soil feedback</t>
+          <t>Sodic soil</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -697,12 +765,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>120217122</t>
+          <t>2909722689</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Precision agriculture</t>
+          <t>Soil Pollutants</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -715,12 +783,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>58395597</t>
+          <t>7959160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Red soil</t>
+          <t>Soil biodiversity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -733,12 +801,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2910302653</t>
+          <t>2778577444</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SOIL EXPOSURE</t>
+          <t>Soil bioengineering</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -751,12 +819,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2779746779</t>
+          <t>53421856</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Serpentine soil</t>
+          <t>Soil biology</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -769,12 +837,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2775845107</t>
+          <t>39464130</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sodic soil</t>
+          <t>Soil carbon</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -787,12 +855,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2909722689</t>
+          <t>29510844</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Soil Pollutants</t>
+          <t>Soil chemistry</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -805,12 +873,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7959160</t>
+          <t>152494472</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Soil biodiversity</t>
+          <t>Soil classification</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -823,12 +891,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2778577444</t>
+          <t>152100882</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Soil bioengineering</t>
+          <t>Soil color</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -841,12 +909,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>53421856</t>
+          <t>70957220</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Soil biology</t>
+          <t>Soil compaction</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -859,12 +927,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39464130</t>
+          <t>162902727</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Soil carbon</t>
+          <t>Soil conditioner</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -877,12 +945,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29510844</t>
+          <t>109162521</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Soil chemistry</t>
+          <t>Soil conservation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -895,12 +963,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>152494472</t>
+          <t>65580899</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Soil classification</t>
+          <t>Soil contamination</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -913,12 +981,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>152100882</t>
+          <t>2779422593</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Soil color</t>
+          <t>Soil crust</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -931,12 +999,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>70957220</t>
+          <t>156086215</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Soil compaction</t>
+          <t>Soil ecology</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -949,12 +1017,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>162902727</t>
+          <t>38774213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Soil conditioner</t>
+          <t>Soil fertility</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -967,12 +1035,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>109162521</t>
+          <t>53145804</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Soil conservation</t>
+          <t>Soil food web</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -985,12 +1053,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>65580899</t>
+          <t>172817999</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Soil contamination</t>
+          <t>Soil functions</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1003,12 +1071,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2779422593</t>
+          <t>2777027713</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Soil crust</t>
+          <t>Soil gas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1021,12 +1089,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>156086215</t>
+          <t>59804570</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Soil ecology</t>
+          <t>Soil governance</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1039,12 +1107,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38774213</t>
+          <t>182745123</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Soil fertility</t>
+          <t>Soil gradation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1057,12 +1125,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>53145804</t>
+          <t>126408429</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Soil food web</t>
+          <t>Soil health</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1075,12 +1143,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172817999</t>
+          <t>156634047</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Soil functions</t>
+          <t>Soil horizon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1093,12 +1161,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2777027713</t>
+          <t>85675897</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Soil gas</t>
+          <t>Soil management</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1111,12 +1179,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>59804570</t>
+          <t>71864017</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Soil governance</t>
+          <t>Soil map</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1129,12 +1197,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>182745123</t>
+          <t>205726622</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Soil gradation</t>
+          <t>Soil mechanics</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1147,12 +1215,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>126408429</t>
+          <t>154885393</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Soil health</t>
+          <t>Soil mesofauna</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1165,12 +1233,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>156634047</t>
+          <t>172365310</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Soil horizon</t>
+          <t>Soil microbiology</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1183,12 +1251,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>85675897</t>
+          <t>53706860</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Soil management</t>
+          <t>Soil morphology</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1201,12 +1269,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>71864017</t>
+          <t>182124840</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Soil map</t>
+          <t>Soil organic matter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1219,12 +1287,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>205726622</t>
+          <t>198072978</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Soil mechanics</t>
+          <t>Soil pH</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1237,12 +1305,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>154885393</t>
+          <t>100474770</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Soil mesofauna</t>
+          <t>Soil physics</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1255,12 +1323,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>172365310</t>
+          <t>134906952</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Soil microbiology</t>
+          <t>Soil plant atmosphere continuum</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1273,12 +1341,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>53706860</t>
+          <t>125596622</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Soil morphology</t>
+          <t>Soil resilience</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1291,12 +1359,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>182124840</t>
+          <t>154414509</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soil organic matter</t>
+          <t>Soil respiration</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1309,12 +1377,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>198072978</t>
+          <t>141185391</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Soil pH</t>
+          <t>Soil retrogression and degradation</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1327,12 +1395,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>100474770</t>
+          <t>141650431</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Soil physics</t>
+          <t>Soil salinity</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1345,12 +1413,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>134906952</t>
+          <t>159390177</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Soil plant atmosphere continuum</t>
+          <t>Soil science</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1363,12 +1431,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>125596622</t>
+          <t>2909107899</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Soil resilience</t>
+          <t>Soil scientist</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1381,12 +1449,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>154414509</t>
+          <t>5589519</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Soil respiration</t>
+          <t>Soil series</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1399,12 +1467,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>141185391</t>
+          <t>2780189059</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Soil retrogression and degradation</t>
+          <t>Soil stabilization</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1417,12 +1485,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>141650431</t>
+          <t>120991184</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Soil salinity</t>
+          <t>Soil structure</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1435,12 +1503,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>45020621</t>
+          <t>3742959</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Soil salinity control</t>
+          <t>Soil survey</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1453,12 +1521,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>159390177</t>
+          <t>50516716</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Soil science</t>
+          <t>Soil test</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1471,12 +1539,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2909107899</t>
+          <t>175963888</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Soil scientist</t>
+          <t>Soil texture</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1489,12 +1557,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5589519</t>
+          <t>114426456</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Soil series</t>
+          <t>Soil thermal properties</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1507,12 +1575,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2780189059</t>
+          <t>160934017</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Soil stabilization</t>
+          <t>Soil type</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1525,12 +1593,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>120991184</t>
+          <t>2777073172</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Soil structure</t>
+          <t>Soil zoology</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1543,12 +1611,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3742959</t>
+          <t>121923324</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Soil survey</t>
+          <t>Subsoil</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1561,12 +1629,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>50516716</t>
+          <t>2780339060</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Soil test</t>
+          <t>Subsoiler</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1579,12 +1647,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>175963888</t>
+          <t>20529654</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Soil texture</t>
+          <t>Topsoil</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1597,12 +1665,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>114426456</t>
+          <t>63696750</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Soil thermal properties</t>
+          <t>USDA soil taxonomy</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1615,12 +1683,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>160934017</t>
+          <t>174200844</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Soil type</t>
+          <t>Unified Soil Classification System</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1633,12 +1701,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2777073172</t>
+          <t>160212601</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Soil zoology</t>
+          <t>World Reference Base for Soil Resources</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1651,177 +1719,209 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>121923324</t>
+          <t>2777638134</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Subsoil</t>
+          <t>University system</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SDG_2</t>
+          <t>SDG_4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2780339060</t>
+          <t>2776266027</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Subsoiler</t>
+          <t>Membrane bioreactor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SDG_2</t>
+          <t>SDG_7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20529654</t>
+          <t>109332788</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Topsoil</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Economic efficiency</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SDG_11</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SDG_2</t>
+          <t>SDG_10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>63696750</t>
+          <t>139838865</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>USDA soil taxonomy</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>Racism</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SDG_11</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SDG_2</t>
+          <t>SDG_10</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>174200844</t>
+          <t>2779449393</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Unified Soil Classification System</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>Human security</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SDG_11</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SDG_2</t>
+          <t>SDG_16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>160212601</t>
+          <t>2778099469</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>World Reference Base for Soil Resources</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>Language politics</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SDG_11</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SDG_2</t>
+          <t>SDG_16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2777638134</t>
+          <t>2781198434</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>University system</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>Amortization</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SDG_4</t>
+          <t>SDG_8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>52896960</t>
+          <t>38070178</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Biodiesel</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>Bank rate</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SDG_7</t>
+          <t>SDG_8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2776266027</t>
+          <t>81751973</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Membrane bioreactor</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>Capital accumulation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SDG_7</t>
+          <t>SDG_8</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2781198434</t>
+          <t>24649204</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Amortization</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>Capital deepening</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1831,15 +1931,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>38070178</t>
+          <t>2777276756</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bank rate</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>Customer base</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1849,15 +1953,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>81751973</t>
+          <t>560292</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Capital accumulation</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>Fixed capital</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1867,15 +1975,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24649204</t>
+          <t>2779872728</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Capital deepening</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>Gross value added</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1885,15 +1997,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2777276756</t>
+          <t>2778380070</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Customer base</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>Intangible asset</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1903,15 +2019,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>560292</t>
+          <t>78285338</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fixed capital</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>Materials management</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1921,15 +2041,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2779872728</t>
+          <t>3963096</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gross value added</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Official cash rate</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1939,15 +2063,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2778380070</t>
+          <t>2777382958</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Intangible asset</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Reverse logistics</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1957,15 +2085,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>78285338</t>
+          <t>2778202820</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Materials management</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Substitution effect</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1975,15 +2107,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3963096</t>
+          <t>551662922</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Official cash rate</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>Tax reform</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SDG_12</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>SDG_8</t>
@@ -1993,54 +2129,66 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2777382958</t>
+          <t>120217122</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Reverse logistics</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>Precision agriculture</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SDG_15</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SDG_8</t>
+          <t>SDG_2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2778202820</t>
+          <t>52896960</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Substitution effect</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>Biodiesel</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SDG_15</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SDG_8</t>
+          <t>SDG_7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>551662922</t>
+          <t>45020621</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tax reform</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>Soil salinity control</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SDG_6</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SDG_8</t>
+          <t>SDG_2</t>
         </is>
       </c>
     </row>

--- a/raw_data/1_replace/ReplacedFOS.xlsx
+++ b/raw_data/1_replace/ReplacedFOS.xlsx
@@ -1651,48 +1651,52 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2777638134</t>
+          <t>2776266027</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>University system</t>
+          <t>Membrane bioreactor</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SDG_4</t>
+          <t>SDG_7</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2776266027</t>
+          <t>109332788</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Membrane bioreactor</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Economic efficiency</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SDG_11</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SDG_7</t>
+          <t>SDG_10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>109332788</t>
+          <t>139838865</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Economic efficiency</t>
+          <t>Racism</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1709,12 +1713,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>139838865</t>
+          <t>2779449393</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Racism</t>
+          <t>Human security</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1724,19 +1728,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SDG_10</t>
+          <t>SDG_16</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2779449393</t>
+          <t>2778099469</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Human security</t>
+          <t>Language politics</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1753,12 +1757,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2778099469</t>
+          <t>2777638134</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Language politics</t>
+          <t>University system</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1768,7 +1772,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SDG_16</t>
+          <t>SDG_4</t>
         </is>
       </c>
     </row>
